--- a/Datos/Anuario2024/110103_IndicadoresEconomiaFinanzas.xlsx
+++ b/Datos/Anuario2024/110103_IndicadoresEconomiaFinanzas.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="74" r:id="rId1"/>
+    <sheet name="1" sheetId="75" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -124,91 +130,180 @@
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>Indicadores presupuestarios - presupuesto corriente</t>
+  </si>
+  <si>
+    <t>Indicadores presupuestarios - presupuesto cerrado</t>
+  </si>
+  <si>
+    <t>Inversión por habitante</t>
+  </si>
+  <si>
+    <t>Indicadores financieros y patrimoniales</t>
+  </si>
+  <si>
+    <t>Endeudamiento por habitante</t>
+  </si>
+  <si>
+    <t>Realización de pagos</t>
+  </si>
+  <si>
+    <t>Gasto por habitante</t>
+  </si>
+  <si>
+    <t>Realización de cobros</t>
+  </si>
+  <si>
+    <t>Autonomía fiscal</t>
+  </si>
+  <si>
+    <t>Liquidez inmediata</t>
+  </si>
+  <si>
+    <t>Fuente: Memoria de la Cuenta General. Sección de Presupuestos, Cuentas y Créditos. Servicio de Contabilidad. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Resultado (superávit o déficit) por habitante</t>
+  </si>
+  <si>
+    <t>Liquidez a corto plazo</t>
+  </si>
+  <si>
+    <t>Grado de ejecución del presupuesto de gastos</t>
+  </si>
+  <si>
+    <t>Cash flow</t>
+  </si>
+  <si>
+    <t>INDICADORES ECONÓMICOS Y FINANCIEROS</t>
+  </si>
+  <si>
+    <t>Liquidez general</t>
+  </si>
+  <si>
+    <t>Endeudamiento</t>
+  </si>
+  <si>
+    <t>Período medio de pago (días) a acreedores comerciales</t>
+  </si>
+  <si>
+    <t>Período medio de cobro (días)</t>
+  </si>
+  <si>
+    <t>Esfuerzo invensor</t>
+  </si>
+  <si>
+    <t>Grado de ejecución del presupuesto de ingresos</t>
+  </si>
+  <si>
+    <t>Autonomía</t>
+  </si>
+  <si>
+    <t>457,36 €/hab.</t>
+  </si>
+  <si>
+    <t>1. Indicadores financieros, patrimoniales y presupuestarios. 2023</t>
+  </si>
+  <si>
+    <t>1.337,40 €/hab</t>
+  </si>
+  <si>
+    <t>186,40 €/hab</t>
+  </si>
+  <si>
+    <t>95,85 €/hab.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -237,76 +332,71 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Porcentaje 2" xfId="8"/>
     <cellStyle name="style1595592910070" xfId="9"/>
+    <cellStyle name="style1595592910101" xfId="11"/>
     <cellStyle name="style1595592910148" xfId="10"/>
-    <cellStyle name="style1595592910101" xfId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -375,13 +465,26 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2039,8 +2142,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13728,7 +13831,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17523,8 +17626,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19706,8 +19809,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20703,323 +20806,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>INDICADORES ECONÓMICOS Y FINANCIEROS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="47.28515625" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>1. Indicadores financieros, patrimoniales y presupuestarios. 2023</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2" t="n"/>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="24.6" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="n">
+    <row r="3" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Indicadores financieros y patrimoniales</t>
-        </is>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
       </c>
-      <c r="B4" s="9" t="n"/>
+      <c r="B4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Liquidez inmediata</t>
-        </is>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="15">
         <v>1.4373</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Liquidez a corto plazo</t>
-        </is>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="B6" s="14" t="n">
-        <v>1.7773</v>
+      <c r="B6" s="14">
+        <v>1.7773000000000001</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Liquidez general</t>
-        </is>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="B7" s="15" t="n">
-        <v>2.236</v>
+      <c r="B7" s="15">
+        <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Endeudamiento por habitante</t>
-        </is>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>457,36 €/hab.</t>
-        </is>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Endeudamiento</t>
-        </is>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>0.0751</v>
+      <c r="B9" s="15">
+        <v>7.51E-2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>Cash flow</t>
-        </is>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>1.8866</v>
+      <c r="B10" s="14">
+        <v>1.8866000000000001</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Período medio de pago (días) a acreedores comerciales</t>
-        </is>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="B11" s="13" t="n">
-        <v>137.14</v>
+      <c r="B11" s="13">
+        <v>137.13999999999999</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>Período medio de cobro (días)</t>
-        </is>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="16">
         <v>194.92</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Indicadores presupuestarios - presupuesto corriente</t>
-        </is>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B13" s="8" t="n"/>
+      <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>Grado de ejecución del presupuesto de gastos</t>
-        </is>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>0.8032</v>
+      <c r="B14" s="14">
+        <v>0.80320000000000003</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Realización de pagos</t>
-        </is>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="B15" s="15" t="n">
-        <v>0.9578</v>
+      <c r="B15" s="15">
+        <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>Gasto por habitante</t>
-        </is>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>1.337,40 €/hab</t>
-        </is>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Inversión por habitante</t>
-        </is>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B17" s="19" t="inlineStr">
-        <is>
-          <t>186,40 €/hab</t>
-        </is>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>Esfuerzo invensor</t>
-        </is>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="14">
         <v>0.1394</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Grado de ejecución del presupuesto de ingresos</t>
-        </is>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="B19" s="15" t="n">
-        <v>0.8002</v>
+      <c r="B19" s="15">
+        <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>Realización de cobros</t>
-        </is>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="B20" s="17" t="n">
-        <v>0.9487</v>
+      <c r="B20" s="17">
+        <v>0.94869999999999999</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Autonomía fiscal</t>
-        </is>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="B21" s="15" t="n">
-        <v>0.8535</v>
+      <c r="B21" s="15">
+        <v>0.85350000000000004</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Autonomía</t>
-        </is>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="B22" s="17" t="n">
-        <v>0.4467</v>
+      <c r="B22" s="17">
+        <v>0.44669999999999999</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Resultado (superávit o déficit) por habitante</t>
-        </is>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>95,85 €/hab.</t>
-        </is>
+      <c r="B23" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>Indicadores presupuestarios - presupuesto cerrado</t>
-        </is>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
       </c>
-      <c r="B24" s="9" t="n"/>
+      <c r="B24" s="9"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Realización de pagos</t>
-        </is>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="B25" s="15" t="n">
-        <v>1.031</v>
+      <c r="B25" s="15">
+        <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>Realización de cobros</t>
-        </is>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="B26" s="17" t="n">
-        <v>0.0501</v>
+      <c r="B26" s="17">
+        <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Memoria de la Cuenta General. Sección de Presupuestos, Cuentas y Créditos. Servicio de Contabilidad. Ayuntamiento de València.</t>
-        </is>
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>